--- a/results/cifar100_training/results_rehearsal_0.3_cifar100.xlsx
+++ b/results/cifar100_training/results_rehearsal_0.3_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.427875939423476</v>
+        <v>3.456434273086818</v>
       </c>
       <c r="D3">
-        <v>3.286858399709066</v>
+        <v>3.266357660293579</v>
       </c>
       <c r="E3">
-        <v>8.08</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01637309756278992</v>
+        <v>0.01615130610466003</v>
       </c>
       <c r="J3">
-        <v>16.16</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.803243092405117</v>
+        <v>2.864037762700984</v>
       </c>
       <c r="D4">
-        <v>2.852531274159749</v>
+        <v>2.823709487915039</v>
       </c>
       <c r="E4">
-        <v>12.21</v>
+        <v>12.7</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05140185985565186</v>
+        <v>0.05192184410095215</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.451442943355902</v>
+        <v>2.509959178688252</v>
       </c>
       <c r="D5">
-        <v>2.804805517196655</v>
+        <v>2.830012559890747</v>
       </c>
       <c r="E5">
-        <v>13.73</v>
+        <v>12.61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01434858164787292</v>
+        <v>0.01407903380393982</v>
       </c>
       <c r="J5">
-        <v>24.42</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.204387019320232</v>
+        <v>2.234760878360377</v>
       </c>
       <c r="D6">
-        <v>2.377317031224569</v>
+        <v>2.59546160697937</v>
       </c>
       <c r="E6">
-        <v>17.07</v>
+        <v>15.59</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.0543970251083374</v>
+        <v>0.05309303302764892</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.99601945062963</v>
+        <v>2.050320210710036</v>
       </c>
       <c r="D7">
-        <v>2.622440497080485</v>
+        <v>2.308273792266846</v>
       </c>
       <c r="E7">
-        <v>15.08</v>
+        <v>18.99</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01370349936485291</v>
+        <v>0.01405596966743469</v>
       </c>
       <c r="J7">
-        <v>27.46</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.831284921343734</v>
+        <v>1.865631049713202</v>
       </c>
       <c r="D8">
-        <v>2.181532382965088</v>
+        <v>2.306548833847046</v>
       </c>
       <c r="E8">
-        <v>19.47</v>
+        <v>18.21</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06159588317871094</v>
+        <v>0.05716440258026123</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.67859074061479</v>
+        <v>1.722135365536783</v>
       </c>
       <c r="D9">
-        <v>2.159408887227376</v>
+        <v>2.092653274536133</v>
       </c>
       <c r="E9">
-        <v>19.82</v>
+        <v>21.25</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01194693999290466</v>
+        <v>0.01269484868049622</v>
       </c>
       <c r="J9">
-        <v>34.14</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.535101420511075</v>
+        <v>1.598300216472254</v>
       </c>
       <c r="D10">
-        <v>1.986238161722819</v>
+        <v>1.97271466255188</v>
       </c>
       <c r="E10">
-        <v>22.68</v>
+        <v>23.21</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.06093755569458008</v>
+        <v>0.05893185997009277</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.440299080639351</v>
+        <v>1.472612082430747</v>
       </c>
       <c r="D11">
-        <v>2.439930280049642</v>
+        <v>2.101754426956177</v>
       </c>
       <c r="E11">
-        <v>18.62</v>
+        <v>21.84</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01359692039489746</v>
+        <v>0.01131038551330566</v>
       </c>
       <c r="J11">
-        <v>30.16</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.333281349360458</v>
+        <v>1.378006272611365</v>
       </c>
       <c r="D12">
-        <v>1.93217655022939</v>
+        <v>2.16317343711853</v>
       </c>
       <c r="E12">
-        <v>24.23</v>
+        <v>21.19</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06346161651611328</v>
+        <v>0.06122809047698975</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.229642885002663</v>
+        <v>1.276295274759816</v>
       </c>
       <c r="D13">
-        <v>2.208972613016764</v>
+        <v>1.952353358268738</v>
       </c>
       <c r="E13">
-        <v>22.12</v>
+        <v>24.48</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0109815936088562</v>
+        <v>0.01128464641571045</v>
       </c>
       <c r="J13">
-        <v>38.94</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.144374873095412</v>
+        <v>1.185715765024709</v>
       </c>
       <c r="D14">
-        <v>2.147144635518392</v>
+        <v>1.908471941947937</v>
       </c>
       <c r="E14">
-        <v>22.79</v>
+        <v>24.52</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06468838367462158</v>
+        <v>0.06300664596557617</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.048090504436958</v>
+        <v>1.096033351083772</v>
       </c>
       <c r="D15">
-        <v>2.091817021369934</v>
+        <v>1.996301293373108</v>
       </c>
       <c r="E15">
-        <v>23.4</v>
+        <v>23.66</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01100289492607117</v>
+        <v>0.01025086991786957</v>
       </c>
       <c r="J15">
-        <v>39.64</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9537965839471274</v>
+        <v>1.012016795377816</v>
       </c>
       <c r="D16">
-        <v>2.34262498219808</v>
+        <v>2.026802778244019</v>
       </c>
       <c r="E16">
-        <v>20.95</v>
+        <v>23.82</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.0687093313217163</v>
+        <v>0.06420129299163818</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8813761991213976</v>
+        <v>0.9353383716228789</v>
       </c>
       <c r="D17">
-        <v>2.027973731358846</v>
+        <v>2.110368013381958</v>
       </c>
       <c r="E17">
-        <v>23.69</v>
+        <v>23.62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.009792296195030213</v>
+        <v>0.009529152941703796</v>
       </c>
       <c r="J17">
-        <v>45.36</v>
+        <v>46.42</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.053219064464414</v>
+        <v>0.8574638234830536</v>
       </c>
       <c r="D18">
-        <v>1.641458670298259</v>
+        <v>2.453608751296997</v>
       </c>
       <c r="E18">
-        <v>27.59</v>
+        <v>22.05</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06833439350128173</v>
+        <v>0.06711805973052978</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9613156003680655</v>
+        <v>0.77325708623481</v>
       </c>
       <c r="D19">
-        <v>1.631770968437195</v>
+        <v>2.412072420120239</v>
       </c>
       <c r="E19">
-        <v>27.28</v>
+        <v>22.53</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01225930604934692</v>
+        <v>0.01016826891899109</v>
       </c>
       <c r="J19">
-        <v>37.24</v>
+        <v>43.68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9128638525319294</v>
+        <v>0.898796347390234</v>
       </c>
       <c r="D20">
-        <v>1.660234729448954</v>
+        <v>1.68793261051178</v>
       </c>
       <c r="E20">
-        <v>27.17</v>
+        <v>27.22</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07079497299194336</v>
+        <v>0.06769847812652588</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8630215956912777</v>
+        <v>0.809683161499226</v>
       </c>
       <c r="D21">
-        <v>1.675185084342957</v>
+        <v>1.701103091239929</v>
       </c>
       <c r="E21">
-        <v>27.01</v>
+        <v>27.07</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.009270877981185912</v>
+        <v>0.01041220889091492</v>
       </c>
       <c r="J21">
-        <v>48.46</v>
+        <v>42.38</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8275133923786443</v>
+        <v>0.7578717533466035</v>
       </c>
       <c r="D22">
-        <v>1.713997681935628</v>
+        <v>1.720850586891174</v>
       </c>
       <c r="E22">
-        <v>26.7</v>
+        <v>27.14</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.07086316184997558</v>
+        <v>0.0671701862335205</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7813988061455207</v>
+        <v>0.7172502695986654</v>
       </c>
       <c r="D23">
-        <v>1.675541083017985</v>
+        <v>1.75018835067749</v>
       </c>
       <c r="E23">
-        <v>26.43</v>
+        <v>27.1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01047670454978943</v>
+        <v>0.009271451377868653</v>
       </c>
       <c r="J23">
-        <v>44.24</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7386983124221244</v>
+        <v>0.6761259294189184</v>
       </c>
       <c r="D24">
-        <v>1.789471864700317</v>
+        <v>1.787310123443604</v>
       </c>
       <c r="E24">
-        <v>26.42</v>
+        <v>26.81</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07277364330291748</v>
+        <v>0.07074295902252198</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8852274146506457</v>
+        <v>0.6392585577163021</v>
       </c>
       <c r="D25">
-        <v>1.642634550730387</v>
+        <v>1.802870631217957</v>
       </c>
       <c r="E25">
-        <v>27.6</v>
+        <v>26.22</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01001406371593475</v>
+        <v>0.009193469047546386</v>
       </c>
       <c r="J25">
-        <v>45.58</v>
+        <v>49.04</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.868775307647581</v>
+        <v>0.7906502210988408</v>
       </c>
       <c r="D26">
-        <v>1.61788288752238</v>
+        <v>1.670512676239014</v>
       </c>
       <c r="E26">
-        <v>27.54</v>
+        <v>27.52</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.06995751037597656</v>
+        <v>0.07426642627716064</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8582555370602182</v>
+        <v>0.7703380895926889</v>
       </c>
       <c r="D27">
-        <v>1.677292426427205</v>
+        <v>1.675004720687866</v>
       </c>
       <c r="E27">
-        <v>27.51</v>
+        <v>27.57</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.009902001667022705</v>
+        <v>0.009669300746917724</v>
       </c>
       <c r="J27">
-        <v>46.8</v>
+        <v>47.32</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8456234805952243</v>
+        <v>0.7555265157623628</v>
       </c>
       <c r="D28">
-        <v>1.628029346466064</v>
+        <v>1.692902803421021</v>
       </c>
       <c r="E28">
-        <v>27.45</v>
+        <v>27.29</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.07357974128723145</v>
+        <v>0.07227783107757568</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.8331895703222694</v>
+        <v>0.745244990407893</v>
       </c>
       <c r="D29">
-        <v>1.64336105187734</v>
+        <v>1.686624884605408</v>
       </c>
       <c r="E29">
-        <v>27.51</v>
+        <v>27.45</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01185633239746094</v>
+        <v>0.009703304505348205</v>
       </c>
       <c r="J29">
-        <v>41.9</v>
+        <v>47.64</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.8225053437357026</v>
+        <v>0.7310225441392544</v>
       </c>
       <c r="D30">
-        <v>1.609038114547729</v>
+        <v>1.676969766616821</v>
       </c>
       <c r="E30">
-        <v>27.52</v>
+        <v>27.39</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.07486617012023926</v>
+        <v>0.07168254432678223</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.8121615323593946</v>
+        <v>0.7216938501965683</v>
       </c>
       <c r="D31">
-        <v>1.630570769309998</v>
+        <v>1.67472243309021</v>
       </c>
       <c r="E31">
-        <v>27.46</v>
+        <v>27.14</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01003435633182526</v>
+        <v>0.01041816453933716</v>
       </c>
       <c r="J31">
-        <v>47.38</v>
+        <v>47.24</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.8013762143569264</v>
+        <v>0.7690719350249366</v>
       </c>
       <c r="D32">
-        <v>1.683940807978312</v>
+        <v>1.679939150810242</v>
       </c>
       <c r="E32">
-        <v>27.39</v>
+        <v>27.55</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.0744157735824585</v>
+        <v>0.0763304838180542</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.7905056253681338</v>
+        <v>0.7634709762260977</v>
       </c>
       <c r="D33">
-        <v>1.684795180956523</v>
+        <v>1.694841265678406</v>
       </c>
       <c r="E33">
-        <v>27.34</v>
+        <v>27.55</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.007865843558311462</v>
+        <v>0.01166881804466248</v>
       </c>
       <c r="J33">
-        <v>55.18</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.7793132110339839</v>
+        <v>0.7616477909341323</v>
       </c>
       <c r="D34">
-        <v>1.656961798667908</v>
+        <v>1.669993996620178</v>
       </c>
       <c r="E34">
-        <v>27.33</v>
+        <v>27.55</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.06942348117828369</v>
+        <v>0.07632946395874024</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.7672237467959644</v>
+        <v>0.7569256087320041</v>
       </c>
       <c r="D35">
-        <v>1.610165278116862</v>
+        <v>1.658870458602905</v>
       </c>
       <c r="E35">
-        <v>27.4</v>
+        <v>27.53</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.007928858327865601</v>
+        <v>0.01152030971050262</v>
       </c>
       <c r="J35">
-        <v>54.56</v>
+        <v>45.06</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.8036273068528834</v>
+        <v>0.7526783231085381</v>
       </c>
       <c r="D36">
-        <v>1.612860202789307</v>
+        <v>1.674370050430298</v>
       </c>
       <c r="E36">
-        <v>27.54</v>
+        <v>27.4</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.06952840518951416</v>
+        <v>0.07691354007720948</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.8005528711691136</v>
+        <v>0.7516804516842935</v>
       </c>
       <c r="D37">
-        <v>1.663823286692302</v>
+        <v>1.668213963508606</v>
       </c>
       <c r="E37">
-        <v>27.53</v>
+        <v>27.59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.008024281644821166</v>
+        <v>0.00808379147052765</v>
       </c>
       <c r="J37">
-        <v>54.34</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.7983792390280623</v>
+        <v>0.7461974214663548</v>
       </c>
       <c r="D38">
-        <v>1.645066658655802</v>
+        <v>1.654332637786865</v>
       </c>
       <c r="E38">
-        <v>27.47</v>
+        <v>27.38</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.06970076446533204</v>
+        <v>0.07102928142547607</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.7969701488812765</v>
+        <v>0.7456492201416893</v>
       </c>
       <c r="D39">
-        <v>1.655426820119222</v>
+        <v>1.678589940071106</v>
       </c>
       <c r="E39">
-        <v>27.49</v>
+        <v>27.62</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.008069007873535157</v>
+        <v>0.008130736231803893</v>
       </c>
       <c r="J39">
-        <v>54.02</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.7959765379990988</v>
+        <v>0.7423752134880134</v>
       </c>
       <c r="D40">
-        <v>1.633996963500977</v>
+        <v>1.644827246665955</v>
       </c>
       <c r="E40">
-        <v>27.49</v>
+        <v>27.52</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.07102086410522461</v>
+        <v>0.07202936153411865</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.8034732021936556</v>
+        <v>0.740062770590318</v>
       </c>
       <c r="D41">
-        <v>1.714193820953369</v>
+        <v>1.672034502029419</v>
       </c>
       <c r="E41">
-        <v>27.42</v>
+        <v>27.63</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.008170778512954712</v>
+        <v>0.00817880401611328</v>
       </c>
       <c r="J41">
-        <v>53.4</v>
+        <v>54.28</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.8026336077752152</v>
+        <v>0.7365293059728842</v>
       </c>
       <c r="D42">
-        <v>1.640789031982422</v>
+        <v>1.677440881729126</v>
       </c>
       <c r="E42">
-        <v>27.52</v>
+        <v>27.47</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.07049366798400879</v>
+        <v>0.0711995740890503</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.7999878666265224</v>
+        <v>0.7323166944284355</v>
       </c>
       <c r="D43">
-        <v>1.643444379170736</v>
+        <v>1.681697607040405</v>
       </c>
       <c r="E43">
-        <v>27.44</v>
+        <v>27.42</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.008299810814857483</v>
+        <v>0.008368262696266174</v>
       </c>
       <c r="J43">
-        <v>52.86</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.8004011196818778</v>
+        <v>0.7287878357203661</v>
       </c>
       <c r="D44">
-        <v>1.648721098899841</v>
+        <v>1.660531282424927</v>
       </c>
       <c r="E44">
-        <v>27.49</v>
+        <v>27.4</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.07141753425598145</v>
+        <v>0.0721239444732666</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.7999934917542992</v>
+        <v>0.7274235581929704</v>
       </c>
       <c r="D45">
-        <v>1.65631115436554</v>
+        <v>1.687985897064209</v>
       </c>
       <c r="E45">
-        <v>27.42</v>
+        <v>27.45</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1697,13 +1697,28 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.008464828038215638</v>
+        <v>0.008389879131317139</v>
       </c>
       <c r="J45">
-        <v>52.84</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="46" spans="1:10">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.7376344441312604</v>
+      </c>
+      <c r="D46">
+        <v>1.669117093086243</v>
+      </c>
+      <c r="E46">
+        <v>27.58</v>
+      </c>
       <c r="G46">
         <v>2</v>
       </c>
@@ -1711,13 +1726,28 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.07072739219665528</v>
+        <v>0.07336278381347656</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.7378170796200237</v>
+      </c>
+      <c r="D47">
+        <v>1.661733269691467</v>
+      </c>
+      <c r="E47">
+        <v>27.39</v>
+      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -1725,13 +1755,28 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.007818217611312865</v>
+        <v>0.008651815676689148</v>
       </c>
       <c r="J47">
-        <v>55.2</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="48" spans="1:10">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0.7348449541404184</v>
+      </c>
+      <c r="D48">
+        <v>1.657470941543579</v>
+      </c>
+      <c r="E48">
+        <v>27.52</v>
+      </c>
       <c r="G48">
         <v>2</v>
       </c>
@@ -1739,13 +1784,28 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.06974600601196289</v>
+        <v>0.07370798263549805</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0.7404956400921915</v>
+      </c>
+      <c r="D49">
+        <v>1.649334788322449</v>
+      </c>
+      <c r="E49">
+        <v>27.4</v>
+      </c>
       <c r="G49">
         <v>1</v>
       </c>
@@ -1753,13 +1813,28 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.007829728817939759</v>
+        <v>0.007915828800201415</v>
       </c>
       <c r="J49">
-        <v>55.08</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.7359989032281183</v>
+      </c>
+      <c r="D50">
+        <v>1.659020066261292</v>
+      </c>
+      <c r="E50">
+        <v>27.58</v>
+      </c>
       <c r="G50">
         <v>2</v>
       </c>
@@ -1767,13 +1842,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.06941831626892089</v>
+        <v>0.0711410945892334</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:10">
+    <row r="51" spans="1:10">
       <c r="G51">
         <v>1</v>
       </c>
@@ -1781,13 +1856,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.007849347233772277</v>
+        <v>0.007948099279403686</v>
       </c>
       <c r="J51">
-        <v>55.02</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
+        <v>55.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="G52">
         <v>2</v>
       </c>
@@ -1795,13 +1870,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.06988335838317872</v>
+        <v>0.07130948638916015</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="1:10">
       <c r="G53">
         <v>1</v>
       </c>
@@ -1809,13 +1884,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.007879329657554626</v>
+        <v>0.007973357367515563</v>
       </c>
       <c r="J53">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="G54">
         <v>2</v>
       </c>
@@ -1823,13 +1898,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.06961960983276368</v>
+        <v>0.07141037540435791</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:10">
+    <row r="55" spans="1:10">
       <c r="G55">
         <v>1</v>
       </c>
@@ -1837,13 +1912,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.007884121704101563</v>
+        <v>0.007993792080879211</v>
       </c>
       <c r="J55">
-        <v>55.02</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="G56">
         <v>2</v>
       </c>
@@ -1851,13 +1926,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.06996266403198242</v>
+        <v>0.07171722755432129</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="1:10">
       <c r="G57">
         <v>1</v>
       </c>
@@ -1865,13 +1940,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.007893802165985108</v>
+        <v>0.007999960994720459</v>
       </c>
       <c r="J57">
-        <v>55.04</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10">
+        <v>54.78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="G58">
         <v>2</v>
       </c>
@@ -1879,13 +1954,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.07017033710479736</v>
+        <v>0.07177190456390381</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="1:10">
       <c r="G59">
         <v>1</v>
       </c>
@@ -1893,13 +1968,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.007921275901794434</v>
+        <v>0.008021897220611572</v>
       </c>
       <c r="J59">
-        <v>54.92</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
+        <v>54.28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="G60">
         <v>2</v>
       </c>
@@ -1907,13 +1982,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.06993531112670899</v>
+        <v>0.07149942646026611</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="1:10">
       <c r="G61">
         <v>1</v>
       </c>
@@ -1921,13 +1996,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0079571763753891</v>
+        <v>0.007920679092407226</v>
       </c>
       <c r="J61">
-        <v>54.78</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="G62">
         <v>2</v>
       </c>
@@ -1935,13 +2010,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.07031850585937501</v>
+        <v>0.07129607582092286</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:10">
+    <row r="63" spans="1:10">
       <c r="G63">
         <v>1</v>
       </c>
@@ -1949,13 +2024,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.007975023436546326</v>
+        <v>0.007930777573585511</v>
       </c>
       <c r="J63">
-        <v>54.68</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="G64">
         <v>2</v>
       </c>
@@ -1963,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07051360511779785</v>
+        <v>0.07151950035095214</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1977,10 +2052,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.007982023787498474</v>
+        <v>0.007933597588539124</v>
       </c>
       <c r="J65">
-        <v>54.66</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1991,7 +2066,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07056406745910644</v>
+        <v>0.07158824081420899</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2005,10 +2080,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.007998377561569214</v>
+        <v>0.007939590096473693</v>
       </c>
       <c r="J67">
-        <v>54.8</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2019,7 +2094,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.07061439609527588</v>
+        <v>0.07165005054473877</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2033,10 +2108,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.007891333532333374</v>
+        <v>0.007945907950401307</v>
       </c>
       <c r="J69">
-        <v>55.08</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2047,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.07019586486816407</v>
+        <v>0.07163673896789551</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2061,10 +2136,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.00790039427280426</v>
+        <v>0.007946890354156494</v>
       </c>
       <c r="J71">
-        <v>55.06</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2075,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.06989584083557129</v>
+        <v>0.07155399723052978</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2089,10 +2164,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.00790633270740509</v>
+        <v>0.00793808298110962</v>
       </c>
       <c r="J73">
-        <v>54.94</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2103,7 +2178,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.07012511653900147</v>
+        <v>0.07143719635009765</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2117,10 +2192,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.007906213235855103</v>
+        <v>0.007962509179115295</v>
       </c>
       <c r="J75">
-        <v>54.98</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2131,7 +2206,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.0701697645187378</v>
+        <v>0.07157878894805908</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2145,10 +2220,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.007914422297477722</v>
+        <v>0.007964113616943359</v>
       </c>
       <c r="J77">
-        <v>54.98</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2159,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.07034795036315918</v>
+        <v>0.07164235897064208</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2173,10 +2248,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.00789891791343689</v>
+        <v>0.007973590636253356</v>
       </c>
       <c r="J79">
-        <v>54.84</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2187,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.07022273941040039</v>
+        <v>0.07179081287384033</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2201,10 +2276,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.007899332261085511</v>
+        <v>0.007963423442840576</v>
       </c>
       <c r="J81">
-        <v>55.04</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2215,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.07012979946136474</v>
+        <v>0.0716601526260376</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2229,10 +2304,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.007900718760490418</v>
+        <v>0.00798356146812439</v>
       </c>
       <c r="J83">
-        <v>54.88</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -2243,7 +2318,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.0702058750152588</v>
+        <v>0.07169972286224366</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2257,10 +2332,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.007895995068550109</v>
+        <v>0.007985469532012939</v>
       </c>
       <c r="J85">
-        <v>54.98</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -2271,7 +2346,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.06993105869293213</v>
+        <v>0.07175510063171386</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2285,10 +2360,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.007898750758171081</v>
+        <v>0.007981618905067444</v>
       </c>
       <c r="J87">
-        <v>54.84</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -2299,9 +2374,149 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.07007754878997803</v>
+        <v>0.07178968696594239</v>
       </c>
       <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>44</v>
+      </c>
+      <c r="I89">
+        <v>0.007963878440856933</v>
+      </c>
+      <c r="J89">
+        <v>55.16</v>
+      </c>
+    </row>
+    <row r="90" spans="7:10">
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>44</v>
+      </c>
+      <c r="I90">
+        <v>0.07168021507263184</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>45</v>
+      </c>
+      <c r="I91">
+        <v>0.007964142632484437</v>
+      </c>
+      <c r="J91">
+        <v>54.78</v>
+      </c>
+    </row>
+    <row r="92" spans="7:10">
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>45</v>
+      </c>
+      <c r="I92">
+        <v>0.071586448097229</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:10">
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>46</v>
+      </c>
+      <c r="I93">
+        <v>0.007951440882682801</v>
+      </c>
+      <c r="J93">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="94" spans="7:10">
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>46</v>
+      </c>
+      <c r="I94">
+        <v>0.07145838985443115</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:10">
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>47</v>
+      </c>
+      <c r="I95">
+        <v>0.007970947980880737</v>
+      </c>
+      <c r="J95">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="96" spans="7:10">
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>47</v>
+      </c>
+      <c r="I96">
+        <v>0.07175165004730225</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10">
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>48</v>
+      </c>
+      <c r="I97">
+        <v>0.007958444571495056</v>
+      </c>
+      <c r="J97">
+        <v>55.16</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10">
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>48</v>
+      </c>
+      <c r="I98">
+        <v>0.07169061050415039</v>
+      </c>
+      <c r="J98">
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2375,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.839675696194172</v>
+        <v>3.999944909089276</v>
       </c>
       <c r="D3">
-        <v>2.834967494010925</v>
+        <v>2.787938356399536</v>
       </c>
       <c r="E3">
-        <v>26.79</v>
+        <v>27.82</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2390,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01655063915252685</v>
+        <v>0.0165837221622467</v>
       </c>
       <c r="J3">
-        <v>23.28</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2404,13 +2619,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.335508247464895</v>
+        <v>2.367635466614548</v>
       </c>
       <c r="D4">
-        <v>2.529739677906036</v>
+        <v>2.730522871017456</v>
       </c>
       <c r="E4">
-        <v>30.08</v>
+        <v>27.42</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2419,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01318319301605225</v>
+        <v>0.01297687926292419</v>
       </c>
       <c r="J4">
-        <v>30.3</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2433,13 +2648,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.064644677937031</v>
+        <v>2.092129640838727</v>
       </c>
       <c r="D5">
-        <v>2.355680882930756</v>
+        <v>2.40701699256897</v>
       </c>
       <c r="E5">
-        <v>32.26</v>
+        <v>33.23</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2448,10 +2663,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01618297481536865</v>
+        <v>0.01753945298194885</v>
       </c>
       <c r="J5">
-        <v>23.74</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2462,13 +2677,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.890571821480989</v>
+        <v>1.895287492648274</v>
       </c>
       <c r="D6">
-        <v>2.215595901012421</v>
+        <v>2.451319694519043</v>
       </c>
       <c r="E6">
-        <v>35.40000000000001</v>
+        <v>34.18</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2477,10 +2692,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.0117994197845459</v>
+        <v>0.0124249858379364</v>
       </c>
       <c r="J6">
-        <v>36.42</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2491,13 +2706,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.741450150310993</v>
+        <v>1.756999566441491</v>
       </c>
       <c r="D7">
-        <v>2.375141739845276</v>
+        <v>2.305874347686768</v>
       </c>
       <c r="E7">
-        <v>33.91</v>
+        <v>35.82</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2506,10 +2721,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01582797713279724</v>
+        <v>0.01627766065597534</v>
       </c>
       <c r="J7">
-        <v>25.44</v>
+        <v>24.22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2520,13 +2735,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.633085588365793</v>
+        <v>1.644470448396644</v>
       </c>
       <c r="D8">
-        <v>2.17353093624115</v>
+        <v>2.300369024276733</v>
       </c>
       <c r="E8">
-        <v>37.5</v>
+        <v>35.37</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2535,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.01084664702415466</v>
+        <v>0.01048706207275391</v>
       </c>
       <c r="J8">
-        <v>39.08</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2549,13 +2764,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.511264532804489</v>
+        <v>1.533851012080705</v>
       </c>
       <c r="D9">
-        <v>2.074301242828369</v>
+        <v>2.365793466567993</v>
       </c>
       <c r="E9">
-        <v>37.16</v>
+        <v>35.89</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2564,10 +2779,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01539766983985901</v>
+        <v>0.01633682713508606</v>
       </c>
       <c r="J9">
-        <v>25.78</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2578,13 +2793,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.426917549967766</v>
+        <v>1.433913024104371</v>
       </c>
       <c r="D10">
-        <v>2.341253817081451</v>
+        <v>2.312999486923218</v>
       </c>
       <c r="E10">
-        <v>37.6</v>
+        <v>36.6</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2593,10 +2808,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.01013289153575897</v>
+        <v>0.01047741498947144</v>
       </c>
       <c r="J10">
-        <v>45.02</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2607,13 +2822,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.331044505536556</v>
+        <v>1.347716427984692</v>
       </c>
       <c r="D11">
-        <v>2.508198201656342</v>
+        <v>2.293661117553711</v>
       </c>
       <c r="E11">
-        <v>34.69</v>
+        <v>37.28</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2622,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01662869319915771</v>
+        <v>0.01572383351325989</v>
       </c>
       <c r="J11">
-        <v>24.18</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2636,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.229687470197678</v>
+        <v>1.257886756034124</v>
       </c>
       <c r="D12">
-        <v>2.109443724155426</v>
+        <v>2.553035259246826</v>
       </c>
       <c r="E12">
-        <v>39.79</v>
+        <v>33.69</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2651,10 +2866,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.01055523898601532</v>
+        <v>0.009901067209243775</v>
       </c>
       <c r="J12">
-        <v>43.64</v>
+        <v>44.94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2665,13 +2880,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.152188457548618</v>
+        <v>1.172947527599983</v>
       </c>
       <c r="D13">
-        <v>2.290170848369598</v>
+        <v>2.376519203186035</v>
       </c>
       <c r="E13">
-        <v>36.59999999999999</v>
+        <v>36.88</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2680,10 +2895,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01526644105911255</v>
+        <v>0.01601419587135315</v>
       </c>
       <c r="J13">
-        <v>26.02</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2694,13 +2909,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.074836075678468</v>
+        <v>1.096784744943891</v>
       </c>
       <c r="D14">
-        <v>2.241228967905045</v>
+        <v>2.367650032043457</v>
       </c>
       <c r="E14">
-        <v>39.13</v>
+        <v>37.99</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2709,10 +2924,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009339148426055908</v>
+        <v>0.01001557598114014</v>
       </c>
       <c r="J14">
-        <v>48.98</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2723,13 +2938,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.211203101277351</v>
+        <v>1.011300370401266</v>
       </c>
       <c r="D15">
-        <v>1.839976847171783</v>
+        <v>2.470416069030762</v>
       </c>
       <c r="E15">
-        <v>44.01</v>
+        <v>37.73</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2738,10 +2953,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01590577712059021</v>
+        <v>0.01665428438186645</v>
       </c>
       <c r="J15">
-        <v>25.1</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2752,13 +2967,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.129767740890384</v>
+        <v>0.939594435854023</v>
       </c>
       <c r="D16">
-        <v>1.77126556634903</v>
+        <v>2.476476192474365</v>
       </c>
       <c r="E16">
-        <v>44.28</v>
+        <v>36.53</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2767,10 +2982,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.009345050120353698</v>
+        <v>0.01010237739086151</v>
       </c>
       <c r="J16">
-        <v>49.22</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2781,13 +2996,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.078050487861037</v>
+        <v>1.036083978860557</v>
       </c>
       <c r="D17">
-        <v>1.880150675773621</v>
+        <v>1.968640089035034</v>
       </c>
       <c r="E17">
-        <v>43.37</v>
+        <v>42.98</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2796,10 +3011,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01603930568695068</v>
+        <v>0.016347833776474</v>
       </c>
       <c r="J17">
-        <v>25.32</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2810,13 +3025,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.03675031401217</v>
+        <v>0.9449639381194601</v>
       </c>
       <c r="D18">
-        <v>1.964439213275909</v>
+        <v>1.980806469917297</v>
       </c>
       <c r="E18">
-        <v>43.43</v>
+        <v>43.16</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2825,10 +3040,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.009329654502868653</v>
+        <v>0.009791532397270203</v>
       </c>
       <c r="J18">
-        <v>49.88</v>
+        <v>46.82</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2839,13 +3054,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.996686652675271</v>
+        <v>0.8939421626986289</v>
       </c>
       <c r="D19">
-        <v>1.822414368391037</v>
+        <v>2.004767179489136</v>
       </c>
       <c r="E19">
-        <v>42.82</v>
+        <v>42.34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2854,10 +3069,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01767002182006836</v>
+        <v>0.01638328943252564</v>
       </c>
       <c r="J19">
-        <v>24.1</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2868,13 +3083,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9546043232083321</v>
+        <v>0.85685850446727</v>
       </c>
       <c r="D20">
-        <v>1.947386562824249</v>
+        <v>2.049043893814087</v>
       </c>
       <c r="E20">
-        <v>42.74</v>
+        <v>42.17</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2883,10 +3098,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.01072819991111755</v>
+        <v>0.009624785733222962</v>
       </c>
       <c r="J20">
-        <v>45.28</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2897,13 +3112,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9181258969008923</v>
+        <v>0.8161556059811391</v>
       </c>
       <c r="D21">
-        <v>2.081641644239426</v>
+        <v>2.082215070724487</v>
       </c>
       <c r="E21">
-        <v>42.26</v>
+        <v>42.08</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2912,10 +3127,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01525429992675781</v>
+        <v>0.01832164158821106</v>
       </c>
       <c r="J21">
-        <v>28.54</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2926,13 +3141,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.04894854426384</v>
+        <v>0.7783520335242862</v>
       </c>
       <c r="D22">
-        <v>1.893275052309036</v>
+        <v>2.112428426742554</v>
       </c>
       <c r="E22">
-        <v>44.2</v>
+        <v>41.93</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2941,10 +3156,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.009035937547683715</v>
+        <v>0.01090240581035614</v>
       </c>
       <c r="J22">
-        <v>51.04</v>
+        <v>43.04</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2955,13 +3170,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.033259956911206</v>
+        <v>0.9175465836816904</v>
       </c>
       <c r="D23">
-        <v>1.871722191572189</v>
+        <v>1.962165594100952</v>
       </c>
       <c r="E23">
-        <v>44.51000000000001</v>
+        <v>43.68</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2970,10 +3185,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01626294231414795</v>
+        <v>0.01651309099197388</v>
       </c>
       <c r="J23">
-        <v>26.9</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2984,13 +3199,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.019038290902972</v>
+        <v>0.8980314662667359</v>
       </c>
       <c r="D24">
-        <v>1.783839076757431</v>
+        <v>1.978008508682251</v>
       </c>
       <c r="E24">
-        <v>44.44</v>
+        <v>43.5</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2999,10 +3214,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.01020676667690277</v>
+        <v>0.0103761727809906</v>
       </c>
       <c r="J24">
-        <v>46.3</v>
+        <v>46.62</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3013,13 +3228,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.009850287809968</v>
+        <v>0.8828954473644698</v>
       </c>
       <c r="D25">
-        <v>1.858482778072357</v>
+        <v>1.964589476585388</v>
       </c>
       <c r="E25">
-        <v>44.02</v>
+        <v>43.32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3028,10 +3243,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01647331624031067</v>
+        <v>0.01662448296546936</v>
       </c>
       <c r="J25">
-        <v>27.24</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3042,13 +3257,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000193517655134</v>
+        <v>0.8698625329400407</v>
       </c>
       <c r="D26">
-        <v>1.740832298994064</v>
+        <v>1.986314654350281</v>
       </c>
       <c r="E26">
-        <v>44.03</v>
+        <v>43.58</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3057,10 +3272,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.009498056221008301</v>
+        <v>0.01016887073516846</v>
       </c>
       <c r="J26">
-        <v>51.02</v>
+        <v>47.34</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3071,13 +3286,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9862161006778478</v>
+        <v>0.8636847819600787</v>
       </c>
       <c r="D27">
-        <v>1.829945355653763</v>
+        <v>1.983904242515564</v>
       </c>
       <c r="E27">
-        <v>44.09</v>
+        <v>43.38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3086,10 +3301,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01347147779464722</v>
+        <v>0.01722728109359741</v>
       </c>
       <c r="J27">
-        <v>31.94</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3100,13 +3315,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9768845729529858</v>
+        <v>0.8540123948434584</v>
       </c>
       <c r="D28">
-        <v>1.835969716310501</v>
+        <v>1.985332727432251</v>
       </c>
       <c r="E28">
-        <v>43.93</v>
+        <v>43.23999999999999</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3115,10 +3330,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.008043042826652526</v>
+        <v>0.01034086849689484</v>
       </c>
       <c r="J28">
-        <v>56.08</v>
+        <v>47.26</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3129,13 +3344,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9690675482153892</v>
+        <v>0.8950559346854281</v>
       </c>
       <c r="D29">
-        <v>1.881355434656143</v>
+        <v>1.954359889030457</v>
       </c>
       <c r="E29">
-        <v>43.86</v>
+        <v>43.51000000000001</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3144,10 +3359,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.0132702841758728</v>
+        <v>0.01751934700012207</v>
       </c>
       <c r="J29">
-        <v>33</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3158,13 +3373,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9592494558542967</v>
+        <v>0.8935007753015376</v>
       </c>
       <c r="D30">
-        <v>1.881464391946793</v>
+        <v>1.949615955352783</v>
       </c>
       <c r="E30">
-        <v>43.56</v>
+        <v>43.48</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3173,10 +3388,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.008185898804664611</v>
+        <v>0.01069022114276886</v>
       </c>
       <c r="J30">
-        <v>55.56</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3187,13 +3402,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.947586003318429</v>
+        <v>0.8878692615599859</v>
       </c>
       <c r="D31">
-        <v>1.895109951496124</v>
+        <v>1.950616478919983</v>
       </c>
       <c r="E31">
-        <v>43.7</v>
+        <v>43.62</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3202,10 +3417,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01386772541999817</v>
+        <v>0.0142977062702179</v>
       </c>
       <c r="J31">
-        <v>31.52</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3216,13 +3431,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.9798330795019865</v>
+        <v>0.8815849399080082</v>
       </c>
       <c r="D32">
-        <v>1.923635125160217</v>
+        <v>1.95600962638855</v>
       </c>
       <c r="E32">
-        <v>43.85</v>
+        <v>43.62</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3231,10 +3446,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.008180476021766662</v>
+        <v>0.00824479911327362</v>
       </c>
       <c r="J32">
-        <v>55.22</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3245,13 +3460,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.9762537226080894</v>
+        <v>0.8806012301217943</v>
       </c>
       <c r="D33">
-        <v>1.764493346214294</v>
+        <v>1.974514722824097</v>
       </c>
       <c r="E33">
-        <v>44.12</v>
+        <v>43.5</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3260,10 +3475,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01404067363739014</v>
+        <v>0.01440982837677002</v>
       </c>
       <c r="J33">
-        <v>32.1</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3274,13 +3489,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9749116018414498</v>
+        <v>0.8764187121877864</v>
       </c>
       <c r="D34">
-        <v>1.891765832901001</v>
+        <v>1.962256669998169</v>
       </c>
       <c r="E34">
-        <v>44.17</v>
+        <v>43.38</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3289,10 +3504,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.008308341860771179</v>
+        <v>0.008340332889556885</v>
       </c>
       <c r="J34">
-        <v>54.76</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3303,13 +3518,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.9717630855739117</v>
+        <v>0.8734585225176649</v>
       </c>
       <c r="D35">
-        <v>1.922287046909332</v>
+        <v>1.965545177459717</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>43.48</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3318,10 +3533,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01431941914558411</v>
+        <v>0.01495943779945373</v>
       </c>
       <c r="J35">
-        <v>30.82</v>
+        <v>30.54</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3332,13 +3547,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.9713844548910856</v>
+        <v>0.885504369022084</v>
       </c>
       <c r="D36">
-        <v>1.885367423295975</v>
+        <v>1.944525837898254</v>
       </c>
       <c r="E36">
-        <v>43.97</v>
+        <v>43.59</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3347,10 +3562,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.008407334923744202</v>
+        <v>0.008339113593101501</v>
       </c>
       <c r="J36">
-        <v>54.82</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3361,13 +3576,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.979688223823905</v>
+        <v>0.8849601186051661</v>
       </c>
       <c r="D37">
-        <v>1.824273943901062</v>
+        <v>1.950494647026062</v>
       </c>
       <c r="E37">
-        <v>44.05</v>
+        <v>43.78</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3376,10 +3591,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01438172168731689</v>
+        <v>0.01484890384674072</v>
       </c>
       <c r="J37">
-        <v>31.26</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3390,13 +3605,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9773648690432311</v>
+        <v>0.8836166647826733</v>
       </c>
       <c r="D38">
-        <v>1.81833091378212</v>
+        <v>1.959069013595581</v>
       </c>
       <c r="E38">
-        <v>43.93</v>
+        <v>43.51</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3405,10 +3620,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.0084277738571167</v>
+        <v>0.008618091726303101</v>
       </c>
       <c r="J38">
-        <v>54.22</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3419,13 +3634,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.9776557013392448</v>
+        <v>0.8830582613036746</v>
       </c>
       <c r="D39">
-        <v>1.791639715433121</v>
+        <v>1.961387872695923</v>
       </c>
       <c r="E39">
-        <v>44.11</v>
+        <v>43.52</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3434,10 +3649,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01476623320579529</v>
+        <v>0.01534264545440674</v>
       </c>
       <c r="J39">
-        <v>29.94</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3448,13 +3663,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.9780148386955261</v>
+        <v>0.8800318533060502</v>
       </c>
       <c r="D40">
-        <v>1.950236171483994</v>
+        <v>1.943262457847595</v>
       </c>
       <c r="E40">
-        <v>43.99</v>
+        <v>43.51000000000001</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3463,10 +3678,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.008411653709411621</v>
+        <v>0.008644680166244506</v>
       </c>
       <c r="J40">
-        <v>54.58</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3477,13 +3692,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.9736825540661812</v>
+        <v>0.8838601517839496</v>
       </c>
       <c r="D41">
-        <v>1.866812258958817</v>
+        <v>1.965803503990173</v>
       </c>
       <c r="E41">
-        <v>44.04</v>
+        <v>43.45999999999999</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3492,13 +3707,28 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01354488143920899</v>
+        <v>0.01537776398658752</v>
       </c>
       <c r="J41">
-        <v>32.46</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="42" spans="1:10">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8825274162551984</v>
+      </c>
+      <c r="D42">
+        <v>1.929282426834106</v>
+      </c>
+      <c r="E42">
+        <v>43.59</v>
+      </c>
       <c r="G42">
         <v>2</v>
       </c>
@@ -3506,13 +3736,28 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.008035097527503967</v>
+        <v>0.008843320393562316</v>
       </c>
       <c r="J42">
-        <v>55.94</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="43" spans="1:10">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.8807483996663775</v>
+      </c>
+      <c r="D43">
+        <v>1.97623872756958</v>
+      </c>
+      <c r="E43">
+        <v>43.36</v>
+      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -3520,13 +3765,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01363263783454895</v>
+        <v>0.01425261235237122</v>
       </c>
       <c r="J43">
-        <v>32.46</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.8798017988399583</v>
+      </c>
+      <c r="D44">
+        <v>1.951497912406921</v>
+      </c>
+      <c r="E44">
+        <v>43.72</v>
+      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -3534,13 +3794,28 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.008018848109245301</v>
+        <v>0.008150724458694457</v>
       </c>
       <c r="J44">
-        <v>56.56</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="45" spans="1:10">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.8834759451094127</v>
+      </c>
+      <c r="D45">
+        <v>1.956180810928345</v>
+      </c>
+      <c r="E45">
+        <v>43.5</v>
+      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -3548,13 +3823,28 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.01369365749359131</v>
+        <v>0.01429611964225769</v>
       </c>
       <c r="J45">
-        <v>32.28</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="46" spans="1:10">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.8764065090490847</v>
+      </c>
+      <c r="D46">
+        <v>1.937602281570435</v>
+      </c>
+      <c r="E46">
+        <v>43.51</v>
+      </c>
       <c r="G46">
         <v>2</v>
       </c>
@@ -3562,13 +3852,28 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.008002053928375243</v>
+        <v>0.008189341259002685</v>
       </c>
       <c r="J46">
-        <v>56.6</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="47" spans="1:10">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.8782203461037201</v>
+      </c>
+      <c r="D47">
+        <v>1.967630982398987</v>
+      </c>
+      <c r="E47">
+        <v>43.51000000000001</v>
+      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -3576,10 +3881,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01380355424880981</v>
+        <v>0.01437470445632935</v>
       </c>
       <c r="J47">
-        <v>31.9</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3590,10 +3895,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.008018112587928772</v>
+        <v>0.008192734432220459</v>
       </c>
       <c r="J48">
-        <v>56.14</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3604,10 +3909,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.01373015975952148</v>
+        <v>0.01437121434211731</v>
       </c>
       <c r="J49">
-        <v>32.22</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3618,10 +3923,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.008068620133399963</v>
+        <v>0.008233263516426087</v>
       </c>
       <c r="J50">
-        <v>55.84</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3632,10 +3937,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.01378272571563721</v>
+        <v>0.01446666078567505</v>
       </c>
       <c r="J51">
-        <v>32.04</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3646,10 +3951,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.008064864921569824</v>
+        <v>0.008258970904350281</v>
       </c>
       <c r="J52">
-        <v>56.14</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3660,10 +3965,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.01374181318283081</v>
+        <v>0.01459783029556274</v>
       </c>
       <c r="J53">
-        <v>31.98</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3674,10 +3979,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.008125066471099854</v>
+        <v>0.008277129054069519</v>
       </c>
       <c r="J54">
-        <v>55.88</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3688,10 +3993,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.013862278175354</v>
+        <v>0.01425422592163086</v>
       </c>
       <c r="J55">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -3702,10 +4007,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.008129781031608581</v>
+        <v>0.008152160263061524</v>
       </c>
       <c r="J56">
-        <v>55.92</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3716,10 +4021,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.01387164454460144</v>
+        <v>0.0142197940826416</v>
       </c>
       <c r="J57">
-        <v>31.58</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -3730,10 +4035,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.008122786951065063</v>
+        <v>0.008183979296684265</v>
       </c>
       <c r="J58">
-        <v>55.54</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3744,10 +4049,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.01392891392707825</v>
+        <v>0.01423299045562744</v>
       </c>
       <c r="J59">
-        <v>31.58</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -3758,10 +4063,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.008139647936820983</v>
+        <v>0.008158956789970398</v>
       </c>
       <c r="J60">
-        <v>55.82</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3772,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.01379148101806641</v>
+        <v>0.01422909817695618</v>
       </c>
       <c r="J61">
-        <v>31.64</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -3786,10 +4091,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.008023950171470642</v>
+        <v>0.008199542737007142</v>
       </c>
       <c r="J62">
-        <v>56.06</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3800,10 +4105,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01376655349731445</v>
+        <v>0.01429097623825073</v>
       </c>
       <c r="J63">
-        <v>31.88</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -3814,10 +4119,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.008024710226058961</v>
+        <v>0.008169006276130677</v>
       </c>
       <c r="J64">
-        <v>56.36</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3828,10 +4133,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.0138382372379303</v>
+        <v>0.01428399786949158</v>
       </c>
       <c r="J65">
-        <v>31.98</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3842,10 +4147,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.008025055050849914</v>
+        <v>0.008187693572044373</v>
       </c>
       <c r="J66">
-        <v>56.36</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3856,10 +4161,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.01380699214935303</v>
+        <v>0.01427784404754639</v>
       </c>
       <c r="J67">
-        <v>31.74</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3870,10 +4175,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.008027469277381898</v>
+        <v>0.008194592475891114</v>
       </c>
       <c r="J68">
-        <v>56.26</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3884,10 +4189,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01381958017349243</v>
+        <v>0.01426215558052063</v>
       </c>
       <c r="J69">
-        <v>31.78</v>
+        <v>32.34</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3898,10 +4203,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.00804626498222351</v>
+        <v>0.00822073781490326</v>
       </c>
       <c r="J70">
-        <v>56.16</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3912,10 +4217,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01372384309768677</v>
+        <v>0.0142055820941925</v>
       </c>
       <c r="J71">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3926,10 +4231,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.008065489292144776</v>
+        <v>0.008160919427871704</v>
       </c>
       <c r="J72">
-        <v>56</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3940,10 +4245,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01374896101951599</v>
+        <v>0.0142784038066864</v>
       </c>
       <c r="J73">
-        <v>31.86</v>
+        <v>32.16</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3954,10 +4259,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.008052513384819032</v>
+        <v>0.008182100224494934</v>
       </c>
       <c r="J74">
-        <v>56</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3968,10 +4273,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01377197694778442</v>
+        <v>0.01424092621803284</v>
       </c>
       <c r="J75">
-        <v>32.04</v>
+        <v>32.48</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -3982,10 +4287,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.00804846613407135</v>
+        <v>0.008174707031250001</v>
       </c>
       <c r="J76">
-        <v>56.18</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3996,10 +4301,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01380391826629639</v>
+        <v>0.01419744343757629</v>
       </c>
       <c r="J77">
-        <v>31.84</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -4010,10 +4315,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.008041457867622375</v>
+        <v>0.008189728236198426</v>
       </c>
       <c r="J78">
-        <v>56.14</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -4024,10 +4329,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.01369210982322693</v>
+        <v>0.01426517491340637</v>
       </c>
       <c r="J79">
-        <v>32.16</v>
+        <v>32.12</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -4038,10 +4343,178 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.008080075097084045</v>
+        <v>0.008149248266220092</v>
       </c>
       <c r="J80">
-        <v>55.92</v>
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>0.01421313452720642</v>
+      </c>
+      <c r="J81">
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>0.008171360182762146</v>
+      </c>
+      <c r="J82">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>41</v>
+      </c>
+      <c r="I83">
+        <v>0.01432691612243652</v>
+      </c>
+      <c r="J83">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10">
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>41</v>
+      </c>
+      <c r="I84">
+        <v>0.008165889263153077</v>
+      </c>
+      <c r="J84">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.01427400722503662</v>
+      </c>
+      <c r="J85">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0.008171834301948547</v>
+      </c>
+      <c r="J86">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>43</v>
+      </c>
+      <c r="I87">
+        <v>0.01425541458129883</v>
+      </c>
+      <c r="J87">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10">
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>43</v>
+      </c>
+      <c r="I88">
+        <v>0.008175951838493347</v>
+      </c>
+      <c r="J88">
+        <v>54.78</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>44</v>
+      </c>
+      <c r="I89">
+        <v>0.0142570737361908</v>
+      </c>
+      <c r="J89">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="90" spans="7:10">
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>44</v>
+      </c>
+      <c r="I90">
+        <v>0.008158194756507874</v>
+      </c>
+      <c r="J90">
+        <v>54.76</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>45</v>
+      </c>
+      <c r="I91">
+        <v>0.01425297698974609</v>
+      </c>
+      <c r="J91">
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="92" spans="7:10">
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>45</v>
+      </c>
+      <c r="I92">
+        <v>0.008181721925735474</v>
+      </c>
+      <c r="J92">
+        <v>54.88</v>
       </c>
     </row>
   </sheetData>
